--- a/services/worker/demos/report/output/revenue/ytd/revenue-ytd.xlsx
+++ b/services/worker/demos/report/output/revenue/ytd/revenue-ytd.xlsx
@@ -17,7 +17,7 @@
     <t>דוח הכנסות - דוגמה בע"מ - Demo Business Ltd</t>
   </si>
   <si>
-    <t>תקופה: 2026-01-01 עד 2026-02-12</t>
+    <t>תקופה: 2026-01-01 עד 2026-02-13</t>
   </si>
   <si>
     <t>מדד</t>
@@ -197,7 +197,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-006.pdf</t>
   </si>
   <si>
-    <t>2026-01-11</t>
+    <t>2026-01-12</t>
   </si>
   <si>
     <t>חברה ז' למסחר</t>
@@ -209,7 +209,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-007.pdf</t>
   </si>
   <si>
-    <t>2026-01-13</t>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>לקוח ח' - משרד עורכי דין</t>
@@ -275,7 +275,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-012.pdf</t>
   </si>
   <si>
-    <t>2026-01-22</t>
+    <t>2026-01-23</t>
   </si>
   <si>
     <t>עסק יג' - בריאות</t>
@@ -287,7 +287,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-013.pdf</t>
   </si>
   <si>
-    <t>2026-01-24</t>
+    <t>2026-01-25</t>
   </si>
   <si>
     <t>לקוח יד' - חינוך</t>
@@ -299,7 +299,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-014.pdf</t>
   </si>
   <si>
-    <t>2026-01-26</t>
+    <t>2026-01-27</t>
   </si>
   <si>
     <t>חברה טו' - לוגיסטיקה</t>
@@ -311,7 +311,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-015.pdf</t>
   </si>
   <si>
-    <t>2026-01-28</t>
+    <t>2026-01-29</t>
   </si>
   <si>
     <t>לקוח טז' - תיירות</t>
@@ -347,7 +347,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-018.pdf</t>
   </si>
   <si>
-    <t>2026-02-02</t>
+    <t>2026-02-03</t>
   </si>
   <si>
     <t>חברה יט' - פיננסים</t>
@@ -359,7 +359,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-019.pdf</t>
   </si>
   <si>
-    <t>2026-02-04</t>
+    <t>2026-02-05</t>
   </si>
   <si>
     <t>לקוח כ' - תקשורת</t>
@@ -371,7 +371,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-020.pdf</t>
   </si>
   <si>
-    <t>2026-02-06</t>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>עסק כא' - ספורט</t>
@@ -383,7 +383,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-021.pdf</t>
   </si>
   <si>
-    <t>2026-02-08</t>
+    <t>2026-02-09</t>
   </si>
   <si>
     <t>לקוח כב' - אנרגיה</t>
@@ -395,7 +395,7 @@
     <t>https://storage.googleapis.com/demo-bucket-invoices/2026-022.pdf</t>
   </si>
   <si>
-    <t>2026-02-10</t>
+    <t>2026-02-11</t>
   </si>
   <si>
     <t>חברה כג' - רכב</t>
@@ -411,9 +411,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="₪#,##0.00"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -469,7 +466,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
